--- a/reports/metrics/metrics_cold_start.xlsx
+++ b/reports/metrics/metrics_cold_start.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jensen/Desktop/recommendation-systems/reports/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3C493B-0F34-384E-A9E5-3DB9B2D1CD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D72FF43-0423-7447-A012-13E84969363D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{1BBCF0FA-60AB-C24D-8479-9EF9DCCACDF3}"/>
+    <workbookView xWindow="33820" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{1BBCF0FA-60AB-C24D-8479-9EF9DCCACDF3}"/>
   </bookViews>
   <sheets>
     <sheet name="metrics" sheetId="1" r:id="rId1"/>
@@ -126,10 +126,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -450,7 +449,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,11 +484,11 @@
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1.559E-2</v>
+      <c r="D2" s="3">
+        <v>1.585E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>0.93813999999999997</v>
+        <v>0.93808000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -502,11 +501,11 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>2.1069999999999998E-2</v>
+      <c r="D3" s="3">
+        <v>2.1669999999999998E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>0.95252000000000003</v>
+        <v>0.95226999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -519,11 +518,11 @@
       <c r="C4">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>2.435E-2</v>
+      <c r="D4" s="3">
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>0.96120000000000005</v>
+        <v>0.96113000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -536,11 +535,11 @@
       <c r="C5">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>2.7289999999999998E-2</v>
+      <c r="D5" s="3">
+        <v>2.776E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>0.96711000000000003</v>
+        <v>0.96684999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -553,10 +552,10 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>9.2300000000000004E-3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.83225000000000005</v>
       </c>
     </row>
@@ -570,10 +569,10 @@
       <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1.3849999999999999E-2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.85746999999999995</v>
       </c>
     </row>
@@ -587,10 +586,10 @@
       <c r="C8">
         <v>15</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>1.7389999999999999E-2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0.86795</v>
       </c>
     </row>
@@ -604,10 +603,10 @@
       <c r="C9">
         <v>20</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>2.1739999999999999E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0.87419000000000002</v>
       </c>
     </row>
@@ -621,10 +620,10 @@
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>8.2299999999999995E-3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.88507999999999998</v>
       </c>
     </row>
@@ -638,10 +637,10 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>1.1769999999999999E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0.90647999999999995</v>
       </c>
     </row>
@@ -655,10 +654,10 @@
       <c r="C12">
         <v>15</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1.5049999999999999E-2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.91476999999999997</v>
       </c>
     </row>
@@ -672,10 +671,10 @@
       <c r="C13">
         <v>20</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1.753E-2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.92162999999999995</v>
       </c>
     </row>
@@ -689,10 +688,10 @@
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>0.96486000000000005</v>
       </c>
     </row>
@@ -706,10 +705,10 @@
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>0.9577</v>
       </c>
     </row>
@@ -723,10 +722,10 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0.95601000000000003</v>
       </c>
     </row>
@@ -740,10 +739,10 @@
       <c r="C17">
         <v>20</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>0.95735000000000003</v>
       </c>
     </row>
@@ -757,10 +756,10 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>1.585E-2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>0.93635999999999997</v>
       </c>
     </row>
@@ -774,10 +773,10 @@
       <c r="C19">
         <v>10</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>2.4080000000000001E-2</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>0.94052000000000002</v>
       </c>
     </row>
@@ -791,10 +790,10 @@
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>3.2509999999999997E-2</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0.94430999999999998</v>
       </c>
     </row>
@@ -808,10 +807,10 @@
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>3.9669999999999997E-2</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.94767999999999997</v>
       </c>
     </row>
@@ -825,11 +824,11 @@
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22" s="4">
-        <v>2.4199999999999998E-3</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.96789000000000003</v>
+      <c r="D22" s="3">
+        <v>2.81E-3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.97652000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -842,11 +841,11 @@
       <c r="C23">
         <v>10</v>
       </c>
-      <c r="D23" s="4">
-        <v>4.9100000000000003E-3</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.96825000000000006</v>
+      <c r="D23" s="3">
+        <v>4.8799999999999998E-3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.97484000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -859,11 +858,11 @@
       <c r="C24">
         <v>15</v>
       </c>
-      <c r="D24" s="4">
-        <v>6.9899999999999997E-3</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.96826000000000001</v>
+      <c r="D24" s="3">
+        <v>6.8199999999999997E-3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.97394999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -876,11 +875,11 @@
       <c r="C25">
         <v>20</v>
       </c>
-      <c r="D25" s="4">
-        <v>9.7199999999999995E-3</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.96828999999999998</v>
+      <c r="D25" s="2">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.97335000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -894,10 +893,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>4.4000000000000003E-3</v>
+        <v>4.28E-3</v>
       </c>
       <c r="E26" s="2">
-        <v>0.90990000000000004</v>
+        <v>0.90947</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -911,10 +910,10 @@
         <v>10</v>
       </c>
       <c r="D27" s="2">
-        <v>6.0200000000000002E-3</v>
+        <v>5.5399999999999998E-3</v>
       </c>
       <c r="E27" s="2">
-        <v>0.94394999999999996</v>
+        <v>0.94476000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -945,10 +944,10 @@
         <v>20</v>
       </c>
       <c r="D29" s="2">
-        <v>1.439E-2</v>
+        <v>1.4449999999999999E-2</v>
       </c>
       <c r="E29" s="2">
-        <v>0.95269000000000004</v>
+        <v>0.95262000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1029,10 +1028,10 @@
       <c r="C34">
         <v>5</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>3.31E-3</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>0.91335999999999995</v>
       </c>
     </row>
@@ -1046,10 +1045,10 @@
       <c r="C35">
         <v>10</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>4.5199999999999997E-3</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>0.92967</v>
       </c>
     </row>
@@ -1063,10 +1062,10 @@
       <c r="C36">
         <v>15</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>6.7400000000000003E-3</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>0.93391999999999997</v>
       </c>
     </row>
@@ -1080,10 +1079,10 @@
       <c r="C37">
         <v>20</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>9.3900000000000008E-3</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>0.93340000000000001</v>
       </c>
     </row>
@@ -1097,10 +1096,10 @@
       <c r="C38">
         <v>5</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>0.92103000000000002</v>
       </c>
     </row>
@@ -1114,10 +1113,10 @@
       <c r="C39">
         <v>10</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>0.91556999999999999</v>
       </c>
     </row>
@@ -1131,10 +1130,10 @@
       <c r="C40">
         <v>15</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>0.9194</v>
       </c>
     </row>
@@ -1148,10 +1147,10 @@
       <c r="C41">
         <v>20</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>0.92449999999999999</v>
       </c>
     </row>
@@ -1165,10 +1164,10 @@
       <c r="C42">
         <v>5</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>1.8669999999999999E-2</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>0.94986999999999999</v>
       </c>
     </row>
@@ -1182,10 +1181,10 @@
       <c r="C43">
         <v>10</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>2.7459999999999998E-2</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>0.95508000000000004</v>
       </c>
     </row>
@@ -1199,10 +1198,10 @@
       <c r="C44">
         <v>15</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>3.6909999999999998E-2</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>0.95789999999999997</v>
       </c>
     </row>
@@ -1216,10 +1215,10 @@
       <c r="C45">
         <v>20</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>4.233E-2</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>0.96016999999999997</v>
       </c>
     </row>

--- a/reports/metrics/metrics_cold_start.xlsx
+++ b/reports/metrics/metrics_cold_start.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jensen/Desktop/recommendation-systems/reports/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D72FF43-0423-7447-A012-13E84969363D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896326DA-8AD6-7842-8998-37AE237BF110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33820" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{1BBCF0FA-60AB-C24D-8479-9EF9DCCACDF3}"/>
+    <workbookView xWindow="33820" yWindow="500" windowWidth="23000" windowHeight="23520" xr2:uid="{1BBCF0FA-60AB-C24D-8479-9EF9DCCACDF3}"/>
   </bookViews>
   <sheets>
     <sheet name="metrics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="12">
   <si>
     <t>Category</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Novelty@N</t>
   </si>
   <si>
     <t>ER-CBF</t>
@@ -99,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,11 +129,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -449,7 +454,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,9 +475,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -484,12 +487,10 @@
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>1.585E-2</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.93808000000000002</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -501,12 +502,10 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>2.1669999999999998E-2</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.95226999999999995</v>
-      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -518,12 +517,10 @@
       <c r="C4">
         <v>15</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>2.4750000000000001E-2</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.96113000000000004</v>
-      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -535,80 +532,70 @@
       <c r="C5">
         <v>20</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>2.776E-2</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.96684999999999999</v>
-      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>9.2300000000000004E-3</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.83225000000000005</v>
-      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>1.3849999999999999E-2</v>
       </c>
-      <c r="E7" s="3">
-        <v>0.85746999999999995</v>
-      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>1.7389999999999999E-2</v>
       </c>
-      <c r="E8" s="3">
-        <v>0.86795</v>
-      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>20</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>2.1739999999999999E-2</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.87419000000000002</v>
-      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -620,12 +607,10 @@
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>8.2299999999999995E-3</v>
       </c>
-      <c r="E10" s="3">
-        <v>0.88507999999999998</v>
-      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -637,12 +622,10 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>1.1769999999999999E-2</v>
       </c>
-      <c r="E11" s="3">
-        <v>0.90647999999999995</v>
-      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -654,12 +637,10 @@
       <c r="C12">
         <v>15</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>1.5049999999999999E-2</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.91476999999999997</v>
-      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -671,148 +652,130 @@
       <c r="C13">
         <v>20</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>1.753E-2</v>
       </c>
-      <c r="E13" s="3">
-        <v>0.92162999999999995</v>
-      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0.96486000000000005</v>
-      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.9577</v>
-      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="E16" s="3">
-        <v>0.95601000000000003</v>
-      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>20</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="E17" s="3">
-        <v>0.95735000000000003</v>
-      </c>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>1.585E-2</v>
       </c>
-      <c r="E18" s="3">
-        <v>0.93635999999999997</v>
-      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>2.4080000000000001E-2</v>
       </c>
-      <c r="E19" s="3">
-        <v>0.94052000000000002</v>
-      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>3.2509999999999997E-2</v>
       </c>
-      <c r="E20" s="3">
-        <v>0.94430999999999998</v>
-      </c>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>3.9669999999999997E-2</v>
       </c>
-      <c r="E21" s="3">
-        <v>0.94767999999999997</v>
-      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -824,12 +787,10 @@
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>2.81E-3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0.97652000000000005</v>
-      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -841,12 +802,10 @@
       <c r="C23">
         <v>10</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>4.8799999999999998E-3</v>
       </c>
-      <c r="E23" s="3">
-        <v>0.97484000000000004</v>
-      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -858,12 +817,10 @@
       <c r="C24">
         <v>15</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>6.8199999999999997E-3</v>
       </c>
-      <c r="E24" s="3">
-        <v>0.97394999999999998</v>
-      </c>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -875,12 +832,10 @@
       <c r="C25">
         <v>20</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="E25" s="3">
-        <v>0.97335000000000005</v>
-      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -892,12 +847,10 @@
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="5">
         <v>4.28E-3</v>
       </c>
-      <c r="E26" s="2">
-        <v>0.90947</v>
-      </c>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -909,12 +862,10 @@
       <c r="C27">
         <v>10</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="5">
         <v>5.5399999999999998E-3</v>
       </c>
-      <c r="E27" s="2">
-        <v>0.94476000000000004</v>
-      </c>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -926,12 +877,10 @@
       <c r="C28">
         <v>15</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <v>8.7299999999999999E-3</v>
       </c>
-      <c r="E28" s="2">
-        <v>0.95026999999999995</v>
-      </c>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -943,80 +892,70 @@
       <c r="C29">
         <v>20</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <v>1.4449999999999999E-2</v>
       </c>
-      <c r="E29" s="2">
-        <v>0.95262000000000002</v>
-      </c>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <v>5.1200000000000004E-3</v>
       </c>
-      <c r="E30" s="2">
-        <v>0.79949999999999999</v>
-      </c>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <v>9.0900000000000009E-3</v>
       </c>
-      <c r="E31" s="2">
-        <v>0.79886000000000001</v>
-      </c>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>15</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
         <v>1.289E-2</v>
       </c>
-      <c r="E32" s="2">
-        <v>0.80872999999999995</v>
-      </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>20</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="5">
         <v>1.5720000000000001E-2</v>
       </c>
-      <c r="E33" s="2">
-        <v>0.81989000000000001</v>
-      </c>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1028,12 +967,10 @@
       <c r="C34">
         <v>5</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="5">
         <v>3.31E-3</v>
       </c>
-      <c r="E34" s="2">
-        <v>0.91335999999999995</v>
-      </c>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1045,12 +982,10 @@
       <c r="C35">
         <v>10</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="5">
         <v>4.5199999999999997E-3</v>
       </c>
-      <c r="E35" s="2">
-        <v>0.92967</v>
-      </c>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -1062,12 +997,10 @@
       <c r="C36">
         <v>15</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="5">
         <v>6.7400000000000003E-3</v>
       </c>
-      <c r="E36" s="2">
-        <v>0.93391999999999997</v>
-      </c>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -1079,148 +1012,130 @@
       <c r="C37">
         <v>20</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="5">
         <v>9.3900000000000008E-3</v>
       </c>
-      <c r="E37" s="2">
-        <v>0.93340000000000001</v>
-      </c>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>5</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="5">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="E38" s="2">
-        <v>0.92103000000000002</v>
-      </c>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>10</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="5">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="E39" s="2">
-        <v>0.91556999999999999</v>
-      </c>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <v>15</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="5">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E40" s="2">
-        <v>0.9194</v>
-      </c>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <v>20</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="5">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="E41" s="2">
-        <v>0.92449999999999999</v>
-      </c>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="5">
         <v>1.8669999999999999E-2</v>
       </c>
-      <c r="E42" s="2">
-        <v>0.94986999999999999</v>
-      </c>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="5">
         <v>2.7459999999999998E-2</v>
       </c>
-      <c r="E43" s="2">
-        <v>0.95508000000000004</v>
-      </c>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>15</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="5">
         <v>3.6909999999999998E-2</v>
       </c>
-      <c r="E44" s="2">
-        <v>0.95789999999999997</v>
-      </c>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="5">
         <v>4.233E-2</v>
       </c>
-      <c r="E45" s="2">
-        <v>0.96016999999999997</v>
-      </c>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1232,12 +1147,10 @@
       <c r="C46">
         <v>5</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="5">
         <v>5.2399999999999999E-3</v>
       </c>
-      <c r="E46" s="2">
-        <v>0.96736999999999995</v>
-      </c>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -1249,12 +1162,10 @@
       <c r="C47">
         <v>10</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="5">
         <v>0.01</v>
       </c>
-      <c r="E47" s="2">
-        <v>0.97011999999999998</v>
-      </c>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -1266,12 +1177,10 @@
       <c r="C48">
         <v>15</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="5">
         <v>1.4930000000000001E-2</v>
       </c>
-      <c r="E48" s="2">
-        <v>0.97165000000000001</v>
-      </c>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -1283,17 +1192,14 @@
       <c r="C49">
         <v>20</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="5">
         <v>1.788E-2</v>
       </c>
-      <c r="E49" s="2">
-        <v>0.97258</v>
-      </c>
+      <c r="E49" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{E414524C-192C-E243-87D9-38B5300CD824}"/>
-    <hyperlink ref="E1" r:id="rId2" xr:uid="{31E9D48F-8266-E74F-98CF-9DBC40914197}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
